--- a/wjp_filteredcountries.xlsx
+++ b/wjp_filteredcountries.xlsx
@@ -460,7 +460,7 @@
         <v>2013</v>
       </c>
       <c r="C2" t="n">
-        <v>41.9478608550744</v>
+        <v>51.6318902660453</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>2013</v>
       </c>
       <c r="C3" t="n">
-        <v>83.5859156442021</v>
+        <v>79.1050663297751</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>2013</v>
       </c>
       <c r="C4" t="n">
-        <v>78.73451008194749</v>
+        <v>80.5957394456176</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>2013</v>
       </c>
       <c r="C5" t="n">
-        <v>53.7920272438137</v>
+        <v>57.6791801898205</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>2013</v>
       </c>
       <c r="C6" t="n">
-        <v>67.4987699160778</v>
+        <v>71.5621469814887</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>2013</v>
       </c>
       <c r="C7" t="n">
-        <v>80.9427386444488</v>
+        <v>78.2502649588838</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>2013</v>
       </c>
       <c r="C8" t="n">
-        <v>81.2691609774365</v>
+        <v>79.3035710564979</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>2013</v>
       </c>
       <c r="C9" t="n">
-        <v>59.6399955951216</v>
+        <v>57.1954735981305</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>2013</v>
       </c>
       <c r="C10" t="n">
-        <v>86.35991329216401</v>
+        <v>88.9899123955345</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>2013</v>
       </c>
       <c r="C11" t="n">
-        <v>72.233812669888</v>
+        <v>73.23131662726141</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>2013</v>
       </c>
       <c r="C12" t="n">
-        <v>53.70489451334039</v>
+        <v>60.0059557799383</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>2014</v>
       </c>
       <c r="C13" t="n">
-        <v>41.9478608550744</v>
+        <v>50.294961098696</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>2014</v>
       </c>
       <c r="C14" t="n">
-        <v>83.5859156442021</v>
+        <v>79.5177677639103</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>2014</v>
       </c>
       <c r="C15" t="n">
-        <v>78.73451008194749</v>
+        <v>77.9248871625236</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>2014</v>
       </c>
       <c r="C16" t="n">
-        <v>53.7920272438137</v>
+        <v>54.46235925769049</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>2014</v>
       </c>
       <c r="C17" t="n">
-        <v>67.4987699160778</v>
+        <v>67.4858838919379</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2014</v>
       </c>
       <c r="C18" t="n">
-        <v>80.9427386444488</v>
+        <v>77.9239043633598</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>2014</v>
       </c>
       <c r="C19" t="n">
-        <v>81.2691609774365</v>
+        <v>78.4040159706135</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>2014</v>
       </c>
       <c r="C20" t="n">
-        <v>59.6399955951216</v>
+        <v>56.83534344229911</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>2014</v>
       </c>
       <c r="C21" t="n">
-        <v>86.35991329216401</v>
+        <v>85.2936726471051</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>2014</v>
       </c>
       <c r="C22" t="n">
-        <v>72.233812669888</v>
+        <v>76.8211639695118</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>2014</v>
       </c>
       <c r="C23" t="n">
-        <v>53.70489451334039</v>
+        <v>57.5497907314805</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>2015</v>
       </c>
       <c r="C24" t="n">
-        <v>41.9478608550744</v>
+        <v>46.4869117670615</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>2015</v>
       </c>
       <c r="C25" t="n">
-        <v>83.5859156442021</v>
+        <v>82.6823345637802</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>2015</v>
       </c>
       <c r="C26" t="n">
-        <v>78.73451008194749</v>
+        <v>78.8816762255928</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>2015</v>
       </c>
       <c r="C27" t="n">
-        <v>53.7920272438137</v>
+        <v>55.26212690045929</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>2015</v>
       </c>
       <c r="C28" t="n">
-        <v>67.4987699160778</v>
+        <v>72.1590951845032</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>2015</v>
       </c>
       <c r="C29" t="n">
-        <v>80.9427386444488</v>
+        <v>80.0003140478409</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>2015</v>
       </c>
       <c r="C30" t="n">
-        <v>81.2691609774365</v>
+        <v>78.8475361457548</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>2015</v>
       </c>
       <c r="C31" t="n">
-        <v>59.6399955951216</v>
+        <v>56.841987396175</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>2015</v>
       </c>
       <c r="C32" t="n">
-        <v>86.35991329216401</v>
+        <v>86.6135580494437</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>2015</v>
       </c>
       <c r="C33" t="n">
-        <v>72.233812669888</v>
+        <v>78.77139657692011</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>2015</v>
       </c>
       <c r="C34" t="n">
-        <v>53.70489451334039</v>
+        <v>55.15489218902479</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>2016</v>
       </c>
       <c r="C35" t="n">
-        <v>41.9478608550744</v>
+        <v>43.6272313110733</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>2016</v>
       </c>
       <c r="C36" t="n">
-        <v>83.5859156442021</v>
+        <v>83.6003720791599</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>2016</v>
       </c>
       <c r="C37" t="n">
-        <v>78.73451008194749</v>
+        <v>78.15721727995299</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>2016</v>
       </c>
       <c r="C38" t="n">
-        <v>53.7920272438137</v>
+        <v>55.87614681054111</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>2016</v>
       </c>
       <c r="C39" t="n">
-        <v>67.4987699160778</v>
+        <v>71.7862973581276</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>2016</v>
       </c>
       <c r="C40" t="n">
-        <v>80.9427386444488</v>
+        <v>81.13551989309509</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>2016</v>
       </c>
       <c r="C41" t="n">
-        <v>81.2691609774365</v>
+        <v>81.0793211893193</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>2016</v>
       </c>
       <c r="C42" t="n">
-        <v>59.6399955951216</v>
+        <v>58.8928482282977</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>2016</v>
       </c>
       <c r="C43" t="n">
-        <v>86.35991329216401</v>
+        <v>86.2947392025998</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>2016</v>
       </c>
       <c r="C44" t="n">
-        <v>72.233812669888</v>
+        <v>73.2642241930341</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>2016</v>
       </c>
       <c r="C45" t="n">
-        <v>53.70489451334039</v>
+        <v>54.2436885491588</v>
       </c>
     </row>
     <row r="46">
@@ -1318,7 +1318,7 @@
         <v>2019</v>
       </c>
       <c r="C68" t="n">
-        <v>41.9478608550744</v>
+        <v>42.7944768350485</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>2019</v>
       </c>
       <c r="C69" t="n">
-        <v>83.5859156442021</v>
+        <v>83.5255910547871</v>
       </c>
     </row>
     <row r="70">
@@ -1344,7 +1344,7 @@
         <v>2019</v>
       </c>
       <c r="C70" t="n">
-        <v>78.73451008194749</v>
+        <v>77.97504010345691</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>2019</v>
       </c>
       <c r="C71" t="n">
-        <v>53.7920272438137</v>
+        <v>53.056005973674</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>2019</v>
       </c>
       <c r="C72" t="n">
-        <v>67.4987699160778</v>
+        <v>66.4471977511774</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>2019</v>
       </c>
       <c r="C73" t="n">
-        <v>80.9427386444488</v>
+        <v>80.238714692847</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>2019</v>
       </c>
       <c r="C74" t="n">
-        <v>81.2691609774365</v>
+        <v>80.86339711431771</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         <v>2019</v>
       </c>
       <c r="C75" t="n">
-        <v>59.6399955951216</v>
+        <v>56.78447747104089</v>
       </c>
     </row>
     <row r="76">
@@ -1422,7 +1422,7 @@
         <v>2019</v>
       </c>
       <c r="C76" t="n">
-        <v>86.35991329216401</v>
+        <v>86.0096346933978</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>2019</v>
       </c>
       <c r="C77" t="n">
-        <v>72.233812669888</v>
+        <v>73.2610011832583</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>2019</v>
       </c>
       <c r="C78" t="n">
-        <v>53.70489451334039</v>
+        <v>55.4595257477329</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>2020</v>
       </c>
       <c r="C79" t="n">
-        <v>41.9478608550744</v>
+        <v>42.9256830032865</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>2020</v>
       </c>
       <c r="C80" t="n">
-        <v>83.5859156442021</v>
+        <v>83.6310848914011</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>2020</v>
       </c>
       <c r="C81" t="n">
-        <v>78.73451008194749</v>
+        <v>77.9578378354756</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         <v>2020</v>
       </c>
       <c r="C82" t="n">
-        <v>53.7920272438137</v>
+        <v>51.5090149899899</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>2020</v>
       </c>
       <c r="C83" t="n">
-        <v>67.4987699160778</v>
+        <v>65.6923970178831</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1526,7 @@
         <v>2020</v>
       </c>
       <c r="C84" t="n">
-        <v>80.9427386444488</v>
+        <v>78.8792611611852</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>2020</v>
       </c>
       <c r="C85" t="n">
-        <v>81.2691609774365</v>
+        <v>80.738650502263</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>2020</v>
       </c>
       <c r="C86" t="n">
-        <v>59.6399955951216</v>
+        <v>56.7432732770176</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>2020</v>
       </c>
       <c r="C87" t="n">
-        <v>86.35991329216401</v>
+        <v>86.17404942498</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>2020</v>
       </c>
       <c r="C88" t="n">
-        <v>72.233812669888</v>
+        <v>73.2390285962957</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         <v>2020</v>
       </c>
       <c r="C89" t="n">
-        <v>53.70489451334039</v>
+        <v>58.2618193010089</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>2021</v>
       </c>
       <c r="C90" t="n">
-        <v>41.9478608550744</v>
+        <v>41.8522544966502</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>2021</v>
       </c>
       <c r="C91" t="n">
-        <v>83.5859156442021</v>
+        <v>83.9534019768317</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         <v>2021</v>
       </c>
       <c r="C92" t="n">
-        <v>78.73451008194749</v>
+        <v>78.5937412151798</v>
       </c>
     </row>
     <row r="93">
@@ -1643,7 +1643,7 @@
         <v>2021</v>
       </c>
       <c r="C93" t="n">
-        <v>53.7920272438137</v>
+        <v>50.0134736797021</v>
       </c>
     </row>
     <row r="94">
@@ -1656,7 +1656,7 @@
         <v>2021</v>
       </c>
       <c r="C94" t="n">
-        <v>67.4987699160778</v>
+        <v>64.1268350581044</v>
       </c>
     </row>
     <row r="95">
@@ -1669,7 +1669,7 @@
         <v>2021</v>
       </c>
       <c r="C95" t="n">
-        <v>80.9427386444488</v>
+        <v>78.5399851516665</v>
       </c>
     </row>
     <row r="96">
@@ -1682,7 +1682,7 @@
         <v>2021</v>
       </c>
       <c r="C96" t="n">
-        <v>81.2691609774365</v>
+        <v>79.9558423016509</v>
       </c>
     </row>
     <row r="97">
@@ -1695,7 +1695,7 @@
         <v>2021</v>
       </c>
       <c r="C97" t="n">
-        <v>59.6399955951216</v>
+        <v>55.0163587602267</v>
       </c>
     </row>
     <row r="98">
@@ -1708,7 +1708,7 @@
         <v>2021</v>
       </c>
       <c r="C98" t="n">
-        <v>86.35991329216401</v>
+        <v>86.17951874254109</v>
       </c>
     </row>
     <row r="99">
@@ -1721,7 +1721,7 @@
         <v>2021</v>
       </c>
       <c r="C99" t="n">
-        <v>72.233812669888</v>
+        <v>73.54420128396239</v>
       </c>
     </row>
     <row r="100">
@@ -1734,7 +1734,7 @@
         <v>2021</v>
       </c>
       <c r="C100" t="n">
-        <v>53.70489451334039</v>
+        <v>57.473322627559</v>
       </c>
     </row>
     <row r="101">
@@ -1747,7 +1747,7 @@
         <v>2022</v>
       </c>
       <c r="C101" t="n">
-        <v>41.9478608550744</v>
+        <v>41.6906528314672</v>
       </c>
     </row>
     <row r="102">
@@ -1760,7 +1760,7 @@
         <v>2022</v>
       </c>
       <c r="C102" t="n">
-        <v>83.5859156442021</v>
+        <v>83.4259900011683</v>
       </c>
     </row>
     <row r="103">
@@ -1773,7 +1773,7 @@
         <v>2022</v>
       </c>
       <c r="C103" t="n">
-        <v>78.73451008194749</v>
+        <v>78.5729990436683</v>
       </c>
     </row>
     <row r="104">
@@ -1786,7 +1786,7 @@
         <v>2022</v>
       </c>
       <c r="C104" t="n">
-        <v>53.7920272438137</v>
+        <v>49.4265751236502</v>
       </c>
     </row>
     <row r="105">
@@ -1799,7 +1799,7 @@
         <v>2022</v>
       </c>
       <c r="C105" t="n">
-        <v>67.4987699160778</v>
+        <v>64.2965222057698</v>
       </c>
     </row>
     <row r="106">
@@ -1812,7 +1812,7 @@
         <v>2022</v>
       </c>
       <c r="C106" t="n">
-        <v>80.9427386444488</v>
+        <v>78.77440337347899</v>
       </c>
     </row>
     <row r="107">
@@ -1825,7 +1825,7 @@
         <v>2022</v>
       </c>
       <c r="C107" t="n">
-        <v>81.2691609774365</v>
+        <v>79.98839636229769</v>
       </c>
     </row>
     <row r="108">
@@ -1838,7 +1838,7 @@
         <v>2022</v>
       </c>
       <c r="C108" t="n">
-        <v>59.6399955951216</v>
+        <v>54.0252095839178</v>
       </c>
     </row>
     <row r="109">
@@ -1851,7 +1851,7 @@
         <v>2022</v>
       </c>
       <c r="C109" t="n">
-        <v>86.35991329216401</v>
+        <v>85.7421302722463</v>
       </c>
     </row>
     <row r="110">
@@ -1864,7 +1864,7 @@
         <v>2022</v>
       </c>
       <c r="C110" t="n">
-        <v>72.233812669888</v>
+        <v>73.2535629393151</v>
       </c>
     </row>
     <row r="111">
@@ -1877,7 +1877,7 @@
         <v>2022</v>
       </c>
       <c r="C111" t="n">
-        <v>53.70489451334039</v>
+        <v>56.5178647852158</v>
       </c>
     </row>
     <row r="112">
@@ -1890,7 +1890,7 @@
         <v>2023</v>
       </c>
       <c r="C112" t="n">
-        <v>41.9478608550744</v>
+        <v>41.3819927831429</v>
       </c>
     </row>
     <row r="113">
@@ -1903,7 +1903,7 @@
         <v>2023</v>
       </c>
       <c r="C113" t="n">
-        <v>83.5859156442021</v>
+        <v>83.446079593622</v>
       </c>
     </row>
     <row r="114">
@@ -1916,7 +1916,7 @@
         <v>2023</v>
       </c>
       <c r="C114" t="n">
-        <v>78.73451008194749</v>
+        <v>78.5782987587544</v>
       </c>
     </row>
     <row r="115">
@@ -1929,7 +1929,7 @@
         <v>2023</v>
       </c>
       <c r="C115" t="n">
-        <v>53.7920272438137</v>
+        <v>48.9949091167642</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +1942,7 @@
         <v>2023</v>
       </c>
       <c r="C116" t="n">
-        <v>67.4987699160778</v>
+        <v>63.8910964759709</v>
       </c>
     </row>
     <row r="117">
@@ -1955,7 +1955,7 @@
         <v>2023</v>
       </c>
       <c r="C117" t="n">
-        <v>80.9427386444488</v>
+        <v>78.42221568544329</v>
       </c>
     </row>
     <row r="118">
@@ -1968,7 +1968,7 @@
         <v>2023</v>
       </c>
       <c r="C118" t="n">
-        <v>81.2691609774365</v>
+        <v>80.0009255338545</v>
       </c>
     </row>
     <row r="119">
@@ -1981,7 +1981,7 @@
         <v>2023</v>
       </c>
       <c r="C119" t="n">
-        <v>59.6399955951216</v>
+        <v>54.78726366490329</v>
       </c>
     </row>
     <row r="120">
@@ -1994,7 +1994,7 @@
         <v>2023</v>
       </c>
       <c r="C120" t="n">
-        <v>86.35991329216401</v>
+        <v>85.41905062552379</v>
       </c>
     </row>
     <row r="121">
@@ -2007,7 +2007,7 @@
         <v>2023</v>
       </c>
       <c r="C121" t="n">
-        <v>72.233812669888</v>
+        <v>73.6425864365344</v>
       </c>
     </row>
     <row r="122">
@@ -2020,7 +2020,7 @@
         <v>2023</v>
       </c>
       <c r="C122" t="n">
-        <v>53.70489451334039</v>
+        <v>56.9979674747191</v>
       </c>
     </row>
     <row r="123">
@@ -2033,7 +2033,7 @@
         <v>2024</v>
       </c>
       <c r="C123" t="n">
-        <v>41.9478608550744</v>
+        <v>41.554074809542</v>
       </c>
     </row>
     <row r="124">
@@ -2046,7 +2046,7 @@
         <v>2024</v>
       </c>
       <c r="C124" t="n">
-        <v>83.5859156442021</v>
+        <v>83.42878462787169</v>
       </c>
     </row>
     <row r="125">
@@ -2059,7 +2059,7 @@
         <v>2024</v>
       </c>
       <c r="C125" t="n">
-        <v>78.73451008194749</v>
+        <v>78.6346891280607</v>
       </c>
     </row>
     <row r="126">
@@ -2072,7 +2072,7 @@
         <v>2024</v>
       </c>
       <c r="C126" t="n">
-        <v>53.7920272438137</v>
+        <v>49.739227734834</v>
       </c>
     </row>
     <row r="127">
@@ -2085,7 +2085,7 @@
         <v>2024</v>
       </c>
       <c r="C127" t="n">
-        <v>67.4987699160778</v>
+        <v>65.937647986088</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2098,7 @@
         <v>2024</v>
       </c>
       <c r="C128" t="n">
-        <v>80.9427386444488</v>
+        <v>78.4980461144601</v>
       </c>
     </row>
     <row r="129">
@@ -2111,7 +2111,7 @@
         <v>2024</v>
       </c>
       <c r="C129" t="n">
-        <v>81.2691609774365</v>
+        <v>79.7335446615543</v>
       </c>
     </row>
     <row r="130">
@@ -2124,7 +2124,7 @@
         <v>2024</v>
       </c>
       <c r="C130" t="n">
-        <v>59.6399955951216</v>
+        <v>54.8070442347771</v>
       </c>
     </row>
     <row r="131">
@@ -2137,7 +2137,7 @@
         <v>2024</v>
       </c>
       <c r="C131" t="n">
-        <v>86.35991329216401</v>
+        <v>85.63826495712679</v>
       </c>
     </row>
     <row r="132">
@@ -2150,7 +2150,7 @@
         <v>2024</v>
       </c>
       <c r="C132" t="n">
-        <v>72.233812669888</v>
+        <v>74.01175463355591</v>
       </c>
     </row>
     <row r="133">
@@ -2163,7 +2163,7 @@
         <v>2024</v>
       </c>
       <c r="C133" t="n">
-        <v>53.70489451334039</v>
+        <v>57.0102324356598</v>
       </c>
     </row>
   </sheetData>
